--- a/sapling_may_2020.xlsx
+++ b/sapling_may_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ty00osat\Documents\PhD\Grass-fire experiment\Analysis\sapling_eghats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01832201-8651-4872-BA86-011063B7793F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C64821-8F2D-435A-9BFD-2F883D2537BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{F355E3BC-8B08-5A45-8703-B696FD85754C}"/>
   </bookViews>
@@ -893,11 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF467414-80EB-CB43-9CA1-0639D1FD1F29}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O1111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -966,7 +965,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1906,7 +1905,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>45</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>45</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>78</v>
@@ -3457,7 +3456,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>45</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>29</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>29</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>45</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>45</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>29</v>
       </c>
@@ -3927,7 +3926,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>78</v>
@@ -3974,7 +3973,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>45</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>29</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>45</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>29</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>45</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>29</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>45</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>29</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>45</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>45</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>45</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>29</v>
       </c>
@@ -4632,7 +4631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>45</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>45</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>45</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>45</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>45</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>45</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>17</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>95</v>
@@ -5008,7 +5007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>34</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>34</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>45</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>34</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>45</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>34</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>45</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>34</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>83</v>
@@ -5384,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>34</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>45</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>34</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>34</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>34</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>45</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>34</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>45</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>45</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>45</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>45</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>45</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>45</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>45</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>45</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>45</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>45</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>58</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>58</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>58</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>58</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>58</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>58</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>58</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>58</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>58</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>58</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>27</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>27</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -6841,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>27</v>
       </c>
@@ -6888,7 +6887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>5</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>5</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>5</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>5</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>27</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>27</v>
       </c>
@@ -7170,7 +7169,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>27</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>27</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>27</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>27</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>27</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>27</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>27</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>5</v>
       </c>
@@ -7546,7 +7545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>5</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>5</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>5</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>5</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>5</v>
       </c>
@@ -7781,7 +7780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>5</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>5</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>5</v>
       </c>
@@ -7922,7 +7921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>5</v>
       </c>
@@ -7969,7 +7968,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>5</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>57</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>60</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>57</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>60</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>57</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>60</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>57</v>
       </c>
@@ -8392,7 +8391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>60</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>57</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>60</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>57</v>
       </c>
@@ -8580,7 +8579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>60</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>57</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>60</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>57</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>60</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>57</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>60</v>
       </c>
@@ -8909,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>57</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>60</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>57</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>60</v>
       </c>
@@ -9097,7 +9096,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>57</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>60</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>57</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>60</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>57</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>60</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>60</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>57</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>57</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>60</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>57</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>57</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>60</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>57</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>60</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>57</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>60</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>57</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>60</v>
       </c>
@@ -9990,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>57</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>57</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>60</v>
       </c>
@@ -10131,7 +10130,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>57</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>60</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>57</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>60</v>
       </c>
@@ -10319,7 +10318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>57</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>60</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>57</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>60</v>
       </c>
@@ -10507,7 +10506,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>59</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>60</v>
       </c>
@@ -10601,7 +10600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>59</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>60</v>
       </c>
@@ -10695,7 +10694,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>59</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>59</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>60</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>59</v>
       </c>
@@ -10883,7 +10882,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>60</v>
       </c>
@@ -10930,7 +10929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>59</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>60</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>59</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>60</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>59</v>
       </c>
@@ -11165,7 +11164,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>59</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>60</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>59</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>60</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>59</v>
       </c>
@@ -11400,7 +11399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>60</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>59</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>60</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>59</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>59</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>60</v>
       </c>
@@ -11682,7 +11681,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>59</v>
       </c>
@@ -11729,7 +11728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>60</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>59</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>60</v>
       </c>
@@ -11870,7 +11869,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>59</v>
       </c>
@@ -11917,7 +11916,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>60</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>59</v>
       </c>
@@ -12011,7 +12010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>60</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>59</v>
       </c>
@@ -12105,7 +12104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>60</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>59</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>60</v>
       </c>
@@ -12246,7 +12245,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>59</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>60</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>59</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>60</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>59</v>
       </c>
@@ -12481,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>59</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>60</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>59</v>
       </c>
@@ -12622,7 +12621,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>60</v>
       </c>
@@ -12669,7 +12668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>60</v>
       </c>
@@ -12716,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>60</v>
       </c>
@@ -12763,7 +12762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>60</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>60</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>60</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>60</v>
       </c>
@@ -12951,7 +12950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>60</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>60</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>60</v>
       </c>
@@ -13092,7 +13091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>60</v>
       </c>
@@ -13139,7 +13138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>60</v>
       </c>
@@ -13186,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>60</v>
       </c>
@@ -13233,7 +13232,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>60</v>
       </c>
@@ -13280,7 +13279,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>60</v>
       </c>
@@ -13327,7 +13326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>59</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>60</v>
       </c>
@@ -13421,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>59</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>60</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>59</v>
       </c>
@@ -13562,7 +13561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>60</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>59</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>60</v>
       </c>
@@ -13703,7 +13702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>59</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>60</v>
       </c>
@@ -13797,7 +13796,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>60</v>
       </c>
@@ -13844,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>59</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>50</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>50</v>
       </c>
@@ -13985,7 +13984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>60</v>
       </c>
@@ -14032,7 +14031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>50</v>
       </c>
@@ -14079,7 +14078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>60</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>50</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>60</v>
       </c>
@@ -14220,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>50</v>
       </c>
@@ -14267,7 +14266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>60</v>
       </c>
@@ -14314,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>50</v>
       </c>
@@ -14361,7 +14360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>60</v>
       </c>
@@ -14408,7 +14407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>50</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>60</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>60</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>50</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>60</v>
       </c>
@@ -14643,7 +14642,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>50</v>
       </c>
@@ -14690,7 +14689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>60</v>
       </c>
@@ -14737,7 +14736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>50</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>60</v>
       </c>
@@ -14831,7 +14830,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>50</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>60</v>
       </c>
@@ -14925,7 +14924,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>60</v>
       </c>
@@ -14972,7 +14971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>50</v>
       </c>
@@ -15019,7 +15018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>60</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>50</v>
       </c>
@@ -15113,7 +15112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>50</v>
       </c>
@@ -15160,7 +15159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>60</v>
       </c>
@@ -15207,7 +15206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>50</v>
       </c>
@@ -15254,7 +15253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>60</v>
       </c>
@@ -15301,7 +15300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>50</v>
       </c>
@@ -15348,7 +15347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>60</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>50</v>
       </c>
@@ -15442,7 +15441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>60</v>
       </c>
@@ -15489,7 +15488,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>60</v>
       </c>
@@ -15536,7 +15535,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>50</v>
       </c>
@@ -15583,7 +15582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>60</v>
       </c>
@@ -15630,7 +15629,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>50</v>
       </c>
@@ -15677,7 +15676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>60</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>50</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>60</v>
       </c>
@@ -15818,7 +15817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>50</v>
       </c>
@@ -15865,7 +15864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>60</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>45</v>
       </c>
@@ -15959,7 +15958,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>45</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>45</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>45</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>45</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
         <v>45</v>
       </c>
@@ -16194,7 +16193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
         <v>45</v>
       </c>
@@ -16241,7 +16240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>45</v>
       </c>
@@ -16288,7 +16287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>45</v>
       </c>
@@ -16335,7 +16334,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
         <v>45</v>
       </c>
@@ -16382,7 +16381,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
         <v>45</v>
       </c>
@@ -16429,7 +16428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
         <v>45</v>
       </c>
@@ -16476,7 +16475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>45</v>
       </c>
@@ -16523,7 +16522,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
         <v>45</v>
       </c>
@@ -16570,7 +16569,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
         <v>45</v>
       </c>
@@ -16617,7 +16616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
         <v>45</v>
       </c>
@@ -16664,7 +16663,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
         <v>45</v>
       </c>
@@ -16711,7 +16710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
         <v>45</v>
       </c>
@@ -16758,7 +16757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
         <v>58</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
         <v>58</v>
       </c>
@@ -16852,7 +16851,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
         <v>58</v>
       </c>
@@ -16899,7 +16898,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
         <v>58</v>
       </c>
@@ -16946,7 +16945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
         <v>58</v>
       </c>
@@ -16993,7 +16992,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
         <v>58</v>
       </c>
@@ -17040,7 +17039,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
         <v>58</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
         <v>58</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
         <v>58</v>
       </c>
@@ -17181,7 +17180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
         <v>58</v>
       </c>
@@ -17228,7 +17227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
         <v>58</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
         <v>58</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
         <v>58</v>
       </c>
@@ -17369,7 +17368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
         <v>58</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
         <v>58</v>
       </c>
@@ -17463,7 +17462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
         <v>58</v>
       </c>
@@ -17510,7 +17509,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
         <v>58</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
         <v>58</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
         <v>58</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
         <v>58</v>
       </c>
@@ -17698,7 +17697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
         <v>58</v>
       </c>
@@ -17745,7 +17744,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
         <v>58</v>
       </c>
@@ -17792,7 +17791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="s">
         <v>58</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" s="4" t="s">
         <v>58</v>
       </c>
@@ -17886,7 +17885,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
         <v>58</v>
       </c>
@@ -17933,7 +17932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
         <v>58</v>
       </c>
@@ -17980,7 +17979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
         <v>58</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>17</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>110</v>
@@ -18027,7 +18026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="s">
         <v>58</v>
       </c>
@@ -18074,7 +18073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
         <v>58</v>
       </c>
@@ -18121,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" s="4" t="s">
         <v>58</v>
       </c>
@@ -18168,7 +18167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
         <v>58</v>
       </c>
@@ -18215,7 +18214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" s="4" t="s">
         <v>58</v>
       </c>
@@ -18262,7 +18261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
         <v>58</v>
       </c>
@@ -18309,7 +18308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="s">
         <v>58</v>
       </c>
@@ -18356,7 +18355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="s">
         <v>58</v>
       </c>
@@ -18403,7 +18402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
         <v>58</v>
       </c>
@@ -18450,7 +18449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
         <v>58</v>
       </c>
@@ -18497,7 +18496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
         <v>58</v>
       </c>
@@ -18544,7 +18543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
         <v>58</v>
       </c>
@@ -18591,7 +18590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
         <v>58</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
         <v>58</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="s">
         <v>58</v>
       </c>
@@ -18732,7 +18731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
         <v>58</v>
       </c>
@@ -18779,7 +18778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
         <v>58</v>
       </c>
@@ -18826,7 +18825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
         <v>57</v>
       </c>
@@ -18873,7 +18872,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="s">
         <v>57</v>
       </c>
@@ -18920,7 +18919,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="s">
         <v>57</v>
       </c>
@@ -18967,7 +18966,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
         <v>57</v>
       </c>
@@ -19014,7 +19013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
         <v>57</v>
       </c>
@@ -19061,7 +19060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" s="4" t="s">
         <v>57</v>
       </c>
@@ -19108,7 +19107,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
         <v>57</v>
       </c>
@@ -19155,7 +19154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="s">
         <v>57</v>
       </c>
@@ -19202,7 +19201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
         <v>57</v>
       </c>
@@ -19249,7 +19248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="s">
         <v>57</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
         <v>57</v>
       </c>
@@ -19343,7 +19342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
         <v>57</v>
       </c>
@@ -19390,7 +19389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="s">
         <v>57</v>
       </c>
@@ -19437,7 +19436,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" s="4" t="s">
         <v>57</v>
       </c>
@@ -19484,7 +19483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
         <v>57</v>
       </c>
@@ -19531,7 +19530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="s">
         <v>57</v>
       </c>
@@ -19578,7 +19577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="s">
         <v>57</v>
       </c>
@@ -19625,7 +19624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" s="4" t="s">
         <v>57</v>
       </c>
@@ -19672,7 +19671,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
         <v>57</v>
       </c>
@@ -19719,7 +19718,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="s">
         <v>57</v>
       </c>
@@ -19766,7 +19765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="s">
         <v>57</v>
       </c>
@@ -19813,7 +19812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
         <v>57</v>
       </c>
@@ -19860,7 +19859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
         <v>57</v>
       </c>
@@ -19907,7 +19906,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
         <v>57</v>
       </c>
@@ -19954,7 +19953,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" s="4" t="s">
         <v>57</v>
       </c>
@@ -20001,7 +20000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" s="4" t="s">
         <v>57</v>
       </c>
@@ -20048,7 +20047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" s="4" t="s">
         <v>57</v>
       </c>
@@ -20095,7 +20094,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" s="4" t="s">
         <v>57</v>
       </c>
@@ -20142,7 +20141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="s">
         <v>52</v>
       </c>
@@ -20189,7 +20188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
         <v>52</v>
       </c>
@@ -20236,7 +20235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
         <v>52</v>
       </c>
@@ -20283,7 +20282,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="s">
         <v>52</v>
       </c>
@@ -20330,7 +20329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
         <v>52</v>
       </c>
@@ -20377,7 +20376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
         <v>29</v>
       </c>
@@ -20424,7 +20423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
         <v>29</v>
       </c>
@@ -20471,7 +20470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
         <v>29</v>
       </c>
@@ -20479,7 +20478,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>80</v>
@@ -20518,7 +20517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="s">
         <v>29</v>
       </c>
@@ -20565,7 +20564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" s="4" t="s">
         <v>29</v>
       </c>
@@ -20612,7 +20611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" s="4" t="s">
         <v>29</v>
       </c>
@@ -20659,7 +20658,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" s="4" t="s">
         <v>29</v>
       </c>
@@ -20706,7 +20705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
         <v>29</v>
       </c>
@@ -20753,7 +20752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" s="4" t="s">
         <v>29</v>
       </c>
@@ -20800,7 +20799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="s">
         <v>29</v>
       </c>
@@ -20847,7 +20846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" s="4" t="s">
         <v>29</v>
       </c>
@@ -20894,7 +20893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
         <v>34</v>
       </c>
@@ -20941,7 +20940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" s="4" t="s">
         <v>34</v>
       </c>
@@ -20988,7 +20987,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
         <v>34</v>
       </c>
@@ -21035,7 +21034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="s">
         <v>34</v>
       </c>
@@ -21082,7 +21081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="s">
         <v>34</v>
       </c>
@@ -21129,7 +21128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" s="4" t="s">
         <v>34</v>
       </c>
@@ -21176,7 +21175,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="s">
         <v>34</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" s="4" t="s">
         <v>34</v>
       </c>
@@ -21270,7 +21269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="s">
         <v>34</v>
       </c>
@@ -21317,7 +21316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" s="4" t="s">
         <v>34</v>
       </c>
@@ -21364,7 +21363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" s="4" t="s">
         <v>34</v>
       </c>
@@ -21411,7 +21410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" s="4" t="s">
         <v>32</v>
       </c>
@@ -21458,7 +21457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" s="4" t="s">
         <v>32</v>
       </c>
@@ -21505,7 +21504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" s="4" t="s">
         <v>32</v>
       </c>
@@ -21552,7 +21551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" s="4" t="s">
         <v>32</v>
       </c>
@@ -21599,7 +21598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" s="4" t="s">
         <v>32</v>
       </c>
@@ -21646,7 +21645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" s="4" t="s">
         <v>32</v>
       </c>
@@ -21693,7 +21692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" s="4" t="s">
         <v>32</v>
       </c>
@@ -21740,7 +21739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="s">
         <v>32</v>
       </c>
@@ -21787,7 +21786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="s">
         <v>32</v>
       </c>
@@ -21834,7 +21833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="s">
         <v>32</v>
       </c>
@@ -21881,7 +21880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
         <v>53</v>
       </c>
@@ -21928,7 +21927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
         <v>32</v>
       </c>
@@ -21975,7 +21974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="s">
         <v>32</v>
       </c>
@@ -22022,7 +22021,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="s">
         <v>32</v>
       </c>
@@ -22069,7 +22068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" s="4" t="s">
         <v>61</v>
       </c>
@@ -22116,7 +22115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="s">
         <v>62</v>
       </c>
@@ -22163,7 +22162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" s="4" t="s">
         <v>61</v>
       </c>
@@ -22210,7 +22209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" s="4" t="s">
         <v>62</v>
       </c>
@@ -22257,7 +22256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
         <v>62</v>
       </c>
@@ -22304,7 +22303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
         <v>61</v>
       </c>
@@ -22351,7 +22350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="s">
         <v>62</v>
       </c>
@@ -22398,7 +22397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
         <v>61</v>
       </c>
@@ -22445,7 +22444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
         <v>62</v>
       </c>
@@ -22492,7 +22491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
         <v>62</v>
       </c>
@@ -22539,7 +22538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
         <v>61</v>
       </c>
@@ -22586,7 +22585,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
         <v>62</v>
       </c>
@@ -22633,7 +22632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="s">
         <v>61</v>
       </c>
@@ -22680,7 +22679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" s="4" t="s">
         <v>61</v>
       </c>
@@ -22727,7 +22726,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" s="4" t="s">
         <v>62</v>
       </c>
@@ -22774,7 +22773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" s="4" t="s">
         <v>62</v>
       </c>
@@ -22821,7 +22820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" s="4" t="s">
         <v>62</v>
       </c>
@@ -22868,7 +22867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" s="4" t="s">
         <v>65</v>
       </c>
@@ -22915,7 +22914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" s="4" t="s">
         <v>56</v>
       </c>
@@ -22962,7 +22961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" s="4" t="s">
         <v>65</v>
       </c>
@@ -23009,7 +23008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="s">
         <v>56</v>
       </c>
@@ -23056,7 +23055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A472" s="4" t="s">
         <v>65</v>
       </c>
@@ -23103,7 +23102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A473" s="4" t="s">
         <v>65</v>
       </c>
@@ -23150,7 +23149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" s="4" t="s">
         <v>61</v>
       </c>
@@ -23197,7 +23196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" s="4" t="s">
         <v>65</v>
       </c>
@@ -23244,7 +23243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="s">
         <v>65</v>
       </c>
@@ -23291,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A477" s="4" t="s">
         <v>56</v>
       </c>
@@ -23338,7 +23337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
         <v>62</v>
       </c>
@@ -23385,7 +23384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A479" s="4" t="s">
         <v>56</v>
       </c>
@@ -23432,7 +23431,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="s">
         <v>62</v>
       </c>
@@ -23479,7 +23478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A481" s="4" t="s">
         <v>61</v>
       </c>
@@ -23526,7 +23525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A482" s="4" t="s">
         <v>62</v>
       </c>
@@ -23573,7 +23572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A483" s="4" t="s">
         <v>65</v>
       </c>
@@ -23620,7 +23619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" s="4" t="s">
         <v>62</v>
       </c>
@@ -23667,7 +23666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" s="4" t="s">
         <v>62</v>
       </c>
@@ -23714,7 +23713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="s">
         <v>62</v>
       </c>
@@ -23761,7 +23760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A487" s="4" t="s">
         <v>56</v>
       </c>
@@ -23808,7 +23807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" s="4" t="s">
         <v>62</v>
       </c>
@@ -23855,7 +23854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" s="4" t="s">
         <v>65</v>
       </c>
@@ -23902,7 +23901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" s="4" t="s">
         <v>61</v>
       </c>
@@ -23949,7 +23948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A491" s="4" t="s">
         <v>65</v>
       </c>
@@ -23996,7 +23995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" s="4" t="s">
         <v>62</v>
       </c>
@@ -24043,7 +24042,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="s">
         <v>62</v>
       </c>
@@ -24090,7 +24089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" s="4" t="s">
         <v>62</v>
       </c>
@@ -24137,7 +24136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A495" s="4" t="s">
         <v>62</v>
       </c>
@@ -24184,7 +24183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A496" s="4" t="s">
         <v>62</v>
       </c>
@@ -24231,7 +24230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" s="4" t="s">
         <v>62</v>
       </c>
@@ -24278,7 +24277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A498" s="4" t="s">
         <v>61</v>
       </c>
@@ -24325,7 +24324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A499" s="4" t="s">
         <v>62</v>
       </c>
@@ -24372,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A500" s="4" t="s">
         <v>62</v>
       </c>
@@ -24419,7 +24418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A501" s="4" t="s">
         <v>62</v>
       </c>
@@ -24466,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A502" s="4" t="s">
         <v>62</v>
       </c>
@@ -24513,7 +24512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A503" s="4" t="s">
         <v>56</v>
       </c>
@@ -24560,7 +24559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A504" s="4" t="s">
         <v>65</v>
       </c>
@@ -24607,7 +24606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A505" s="4" t="s">
         <v>62</v>
       </c>
@@ -24654,7 +24653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A506" s="4" t="s">
         <v>56</v>
       </c>
@@ -24701,7 +24700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A507" s="4" t="s">
         <v>62</v>
       </c>
@@ -24748,7 +24747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A508" s="4" t="s">
         <v>65</v>
       </c>
@@ -24795,7 +24794,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A509" s="4" t="s">
         <v>62</v>
       </c>
@@ -24842,7 +24841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A510" s="4" t="s">
         <v>56</v>
       </c>
@@ -24889,7 +24888,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A511" s="4" t="s">
         <v>62</v>
       </c>
@@ -24936,7 +24935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A512" s="4" t="s">
         <v>56</v>
       </c>
@@ -24983,7 +24982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A513" s="4" t="s">
         <v>56</v>
       </c>
@@ -25030,7 +25029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A514" s="4" t="s">
         <v>61</v>
       </c>
@@ -25077,7 +25076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A515" s="4" t="s">
         <v>56</v>
       </c>
@@ -25124,7 +25123,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A516" s="4" t="s">
         <v>61</v>
       </c>
@@ -25171,7 +25170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A517" s="4" t="s">
         <v>56</v>
       </c>
@@ -25218,7 +25217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A518" s="4" t="s">
         <v>61</v>
       </c>
@@ -25265,7 +25264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A519" s="4" t="s">
         <v>61</v>
       </c>
@@ -25312,7 +25311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A520" s="4" t="s">
         <v>61</v>
       </c>
@@ -25359,7 +25358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A521" s="4" t="s">
         <v>56</v>
       </c>
@@ -25406,7 +25405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A522" s="4" t="s">
         <v>61</v>
       </c>
@@ -25453,7 +25452,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A523" s="4" t="s">
         <v>61</v>
       </c>
@@ -25500,7 +25499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A524" s="4" t="s">
         <v>56</v>
       </c>
@@ -25547,7 +25546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A525" s="4" t="s">
         <v>61</v>
       </c>
@@ -25594,7 +25593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A526" s="4" t="s">
         <v>65</v>
       </c>
@@ -25641,7 +25640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A527" s="4" t="s">
         <v>61</v>
       </c>
@@ -25688,7 +25687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A528" s="4" t="s">
         <v>53</v>
       </c>
@@ -25735,7 +25734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A529" s="4" t="s">
         <v>56</v>
       </c>
@@ -25782,7 +25781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A530" s="4" t="s">
         <v>61</v>
       </c>
@@ -25829,7 +25828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A531" s="4" t="s">
         <v>56</v>
       </c>
@@ -25876,7 +25875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A532" s="4" t="s">
         <v>62</v>
       </c>
@@ -25923,7 +25922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A533" s="4" t="s">
         <v>65</v>
       </c>
@@ -25970,7 +25969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A534" s="4" t="s">
         <v>53</v>
       </c>
@@ -26017,7 +26016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A535" s="4" t="s">
         <v>56</v>
       </c>
@@ -26064,7 +26063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A536" s="4" t="s">
         <v>53</v>
       </c>
@@ -26111,7 +26110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A537" s="4" t="s">
         <v>61</v>
       </c>
@@ -26158,7 +26157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A538" s="4" t="s">
         <v>53</v>
       </c>
@@ -26205,7 +26204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A539" s="4" t="s">
         <v>65</v>
       </c>
@@ -26252,7 +26251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A540" s="4" t="s">
         <v>65</v>
       </c>
@@ -26299,7 +26298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A541" s="4" t="s">
         <v>53</v>
       </c>
@@ -26346,7 +26345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A542" s="4" t="s">
         <v>53</v>
       </c>
@@ -26393,7 +26392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A543" s="4" t="s">
         <v>65</v>
       </c>
@@ -26440,7 +26439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A544" s="4" t="s">
         <v>53</v>
       </c>
@@ -26487,7 +26486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A545" s="4" t="s">
         <v>65</v>
       </c>
@@ -26534,7 +26533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A546" s="4" t="s">
         <v>65</v>
       </c>
@@ -26581,7 +26580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A547" s="4" t="s">
         <v>65</v>
       </c>
@@ -26628,7 +26627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A548" s="4" t="s">
         <v>53</v>
       </c>
@@ -26675,7 +26674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A549" s="4" t="s">
         <v>65</v>
       </c>
@@ -26722,7 +26721,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A550" s="4" t="s">
         <v>65</v>
       </c>
@@ -26769,7 +26768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A551" s="4" t="s">
         <v>53</v>
       </c>
@@ -26816,7 +26815,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A552" s="4" t="s">
         <v>55</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A553" s="4" t="s">
         <v>65</v>
       </c>
@@ -26910,7 +26909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A554" s="4" t="s">
         <v>53</v>
       </c>
@@ -26957,7 +26956,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A555" s="4" t="s">
         <v>65</v>
       </c>
@@ -27004,7 +27003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A556" s="4" t="s">
         <v>55</v>
       </c>
@@ -27051,7 +27050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A557" s="4" t="s">
         <v>65</v>
       </c>
@@ -27098,7 +27097,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A558" s="4" t="s">
         <v>55</v>
       </c>
@@ -27145,7 +27144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A559" s="4" t="s">
         <v>65</v>
       </c>
@@ -27192,7 +27191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A560" s="4" t="s">
         <v>55</v>
       </c>
@@ -27239,7 +27238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A561" s="4" t="s">
         <v>53</v>
       </c>
@@ -27286,7 +27285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A562" s="4" t="s">
         <v>55</v>
       </c>
@@ -27333,7 +27332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A563" s="4" t="s">
         <v>53</v>
       </c>
@@ -27380,7 +27379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A564" s="4" t="s">
         <v>65</v>
       </c>
@@ -27427,7 +27426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A565" s="4" t="s">
         <v>53</v>
       </c>
@@ -27474,7 +27473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A566" s="4" t="s">
         <v>65</v>
       </c>
@@ -27521,7 +27520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A567" s="4" t="s">
         <v>53</v>
       </c>
@@ -27568,7 +27567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A568" s="4" t="s">
         <v>53</v>
       </c>
@@ -27615,7 +27614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A569" s="4" t="s">
         <v>53</v>
       </c>
@@ -27662,7 +27661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A570" s="4" t="s">
         <v>53</v>
       </c>
@@ -27709,7 +27708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A571" s="4" t="s">
         <v>53</v>
       </c>
@@ -27756,7 +27755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A572" s="4" t="s">
         <v>163</v>
       </c>
@@ -27803,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A573" s="4" t="s">
         <v>163</v>
       </c>
@@ -27850,7 +27849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A574" s="4" t="s">
         <v>163</v>
       </c>
@@ -27897,7 +27896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A575" s="4" t="s">
         <v>163</v>
       </c>
@@ -27944,7 +27943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A576" s="4" t="s">
         <v>163</v>
       </c>
@@ -27991,7 +27990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A577" s="4" t="s">
         <v>163</v>
       </c>
@@ -28038,7 +28037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A578" s="4" t="s">
         <v>23</v>
       </c>
@@ -28085,7 +28084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A579" s="4" t="s">
         <v>23</v>
       </c>
@@ -28132,7 +28131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A580" s="4" t="s">
         <v>23</v>
       </c>
@@ -28179,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A581" s="4" t="s">
         <v>23</v>
       </c>
@@ -28226,7 +28225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A582" s="4" t="s">
         <v>23</v>
       </c>
@@ -28273,7 +28272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A583" s="4" t="s">
         <v>23</v>
       </c>
@@ -28320,7 +28319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A584" s="4" t="s">
         <v>163</v>
       </c>
@@ -28367,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A585" s="4" t="s">
         <v>23</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A586" s="4" t="s">
         <v>41</v>
       </c>
@@ -28461,7 +28460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A587" s="4" t="s">
         <v>41</v>
       </c>
@@ -28508,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A588" s="4" t="s">
         <v>41</v>
       </c>
@@ -28555,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A589" s="4" t="s">
         <v>38</v>
       </c>
@@ -28602,7 +28601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A590" s="4" t="s">
         <v>41</v>
       </c>
@@ -28649,7 +28648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A591" s="4" t="s">
         <v>38</v>
       </c>
@@ -28696,7 +28695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A592" s="4" t="s">
         <v>38</v>
       </c>
@@ -28743,7 +28742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A593" s="4" t="s">
         <v>38</v>
       </c>
@@ -28790,7 +28789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A594" s="4" t="s">
         <v>38</v>
       </c>
@@ -28837,7 +28836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A595" s="4" t="s">
         <v>38</v>
       </c>
@@ -28884,7 +28883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A596" s="4" t="s">
         <v>16</v>
       </c>
@@ -28892,7 +28891,7 @@
         <v>17</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D596" s="4" t="s">
         <v>68</v>
@@ -28931,7 +28930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A597" s="4" t="s">
         <v>16</v>
       </c>
@@ -28978,7 +28977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A598" s="4" t="s">
         <v>16</v>
       </c>
@@ -29025,7 +29024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A599" s="4" t="s">
         <v>16</v>
       </c>
@@ -29072,7 +29071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A600" s="4" t="s">
         <v>42</v>
       </c>
@@ -29119,7 +29118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A601" s="4" t="s">
         <v>16</v>
       </c>
@@ -29166,7 +29165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A602" s="4" t="s">
         <v>42</v>
       </c>
@@ -29213,7 +29212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A603" s="4" t="s">
         <v>38</v>
       </c>
@@ -29260,7 +29259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A604" s="4" t="s">
         <v>38</v>
       </c>
@@ -29307,7 +29306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A605" s="4" t="s">
         <v>42</v>
       </c>
@@ -29354,7 +29353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A606" s="4" t="s">
         <v>42</v>
       </c>
@@ -29401,7 +29400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A607" s="4" t="s">
         <v>42</v>
       </c>
@@ -29448,7 +29447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A608" s="4" t="s">
         <v>42</v>
       </c>
@@ -29495,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A609" s="4" t="s">
         <v>38</v>
       </c>
@@ -29542,7 +29541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A610" s="4" t="s">
         <v>38</v>
       </c>
@@ -29589,7 +29588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A611" s="4" t="s">
         <v>41</v>
       </c>
@@ -29636,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A612" s="4" t="s">
         <v>42</v>
       </c>
@@ -29683,7 +29682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A613" s="4" t="s">
         <v>42</v>
       </c>
@@ -29730,7 +29729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A614" s="4" t="s">
         <v>42</v>
       </c>
@@ -29777,7 +29776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A615" s="4" t="s">
         <v>42</v>
       </c>
@@ -29824,7 +29823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A616" s="4" t="s">
         <v>42</v>
       </c>
@@ -29871,7 +29870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A617" s="4" t="s">
         <v>42</v>
       </c>
@@ -29918,7 +29917,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A618" s="4" t="s">
         <v>42</v>
       </c>
@@ -29965,7 +29964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A619" s="4" t="s">
         <v>42</v>
       </c>
@@ -30012,7 +30011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A620" s="4" t="s">
         <v>42</v>
       </c>
@@ -30059,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A621" s="4" t="s">
         <v>42</v>
       </c>
@@ -30106,7 +30105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A622" s="4" t="s">
         <v>42</v>
       </c>
@@ -30153,7 +30152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A623" s="4" t="s">
         <v>42</v>
       </c>
@@ -30200,7 +30199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A624" s="4" t="s">
         <v>16</v>
       </c>
@@ -30247,7 +30246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A625" s="4" t="s">
         <v>16</v>
       </c>
@@ -30294,7 +30293,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A626" s="4" t="s">
         <v>16</v>
       </c>
@@ -30341,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A627" s="4" t="s">
         <v>16</v>
       </c>
@@ -30388,7 +30387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A628" s="4" t="s">
         <v>16</v>
       </c>
@@ -30435,7 +30434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A629" s="4" t="s">
         <v>42</v>
       </c>
@@ -30482,7 +30481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A630" s="4" t="s">
         <v>41</v>
       </c>
@@ -30529,7 +30528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A631" s="4" t="s">
         <v>16</v>
       </c>
@@ -30576,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A632" s="4" t="s">
         <v>16</v>
       </c>
@@ -30623,7 +30622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A633" s="4" t="s">
         <v>16</v>
       </c>
@@ -30670,7 +30669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A634" s="4" t="s">
         <v>16</v>
       </c>
@@ -30717,7 +30716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A635" s="4" t="s">
         <v>16</v>
       </c>
@@ -30764,7 +30763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A636" s="4" t="s">
         <v>16</v>
       </c>
@@ -30811,7 +30810,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A637" s="4" t="s">
         <v>16</v>
       </c>
@@ -30858,7 +30857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A638" s="4" t="s">
         <v>16</v>
       </c>
@@ -30905,7 +30904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A639" s="4" t="s">
         <v>16</v>
       </c>
@@ -30952,7 +30951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A640" s="4" t="s">
         <v>41</v>
       </c>
@@ -30999,7 +30998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A641" s="4" t="s">
         <v>41</v>
       </c>
@@ -31046,7 +31045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A642" s="4" t="s">
         <v>42</v>
       </c>
@@ -31093,7 +31092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A643" s="4" t="s">
         <v>16</v>
       </c>
@@ -31140,7 +31139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A644" s="4" t="s">
         <v>16</v>
       </c>
@@ -31187,7 +31186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A645" s="4" t="s">
         <v>16</v>
       </c>
@@ -31234,7 +31233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A646" s="4" t="s">
         <v>16</v>
       </c>
@@ -31281,7 +31280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A647" s="4" t="s">
         <v>42</v>
       </c>
@@ -31328,7 +31327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A648" s="4" t="s">
         <v>42</v>
       </c>
@@ -31375,7 +31374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A649" s="4" t="s">
         <v>42</v>
       </c>
@@ -31422,7 +31421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A650" s="4" t="s">
         <v>42</v>
       </c>
@@ -31469,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A651" s="4" t="s">
         <v>42</v>
       </c>
@@ -31516,7 +31515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A652" s="4" t="s">
         <v>42</v>
       </c>
@@ -31563,7 +31562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A653" s="4" t="s">
         <v>41</v>
       </c>
@@ -31610,7 +31609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A654" s="4" t="s">
         <v>42</v>
       </c>
@@ -31657,7 +31656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A655" s="4" t="s">
         <v>42</v>
       </c>
@@ -31704,7 +31703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A656" s="4" t="s">
         <v>41</v>
       </c>
@@ -31751,7 +31750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A657" s="4" t="s">
         <v>41</v>
       </c>
@@ -31798,7 +31797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A658" s="4" t="s">
         <v>41</v>
       </c>
@@ -31845,7 +31844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A659" s="4" t="s">
         <v>44</v>
       </c>
@@ -31892,7 +31891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A660" s="4" t="s">
         <v>44</v>
       </c>
@@ -31939,7 +31938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A661" s="4" t="s">
         <v>44</v>
       </c>
@@ -31986,7 +31985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A662" s="4" t="s">
         <v>44</v>
       </c>
@@ -32033,7 +32032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A663" s="4" t="s">
         <v>44</v>
       </c>
@@ -32080,7 +32079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A664" s="4" t="s">
         <v>44</v>
       </c>
@@ -32127,7 +32126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A665" s="4" t="s">
         <v>44</v>
       </c>
@@ -32174,7 +32173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A666" s="4" t="s">
         <v>44</v>
       </c>
@@ -32221,7 +32220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A667" s="4" t="s">
         <v>16</v>
       </c>
@@ -32268,7 +32267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A668" s="4" t="s">
         <v>16</v>
       </c>
@@ -32315,7 +32314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A669" s="4" t="s">
         <v>53</v>
       </c>
@@ -32362,7 +32361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A670" s="4" t="s">
         <v>53</v>
       </c>
@@ -32409,7 +32408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A671" s="4" t="s">
         <v>53</v>
       </c>
@@ -32456,7 +32455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A672" s="4" t="s">
         <v>53</v>
       </c>
@@ -32503,7 +32502,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A673" s="4" t="s">
         <v>60</v>
       </c>
@@ -32550,7 +32549,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A674" s="4" t="s">
         <v>53</v>
       </c>
@@ -32597,7 +32596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A675" s="4" t="s">
         <v>53</v>
       </c>
@@ -32644,7 +32643,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A676" s="4" t="s">
         <v>60</v>
       </c>
@@ -32691,7 +32690,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A677" s="4" t="s">
         <v>60</v>
       </c>
@@ -32738,7 +32737,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A678" s="4" t="s">
         <v>61</v>
       </c>
@@ -32785,7 +32784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A679" s="4" t="s">
         <v>60</v>
       </c>
@@ -32832,7 +32831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A680" s="4" t="s">
         <v>53</v>
       </c>
@@ -32879,7 +32878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A681" s="4" t="s">
         <v>61</v>
       </c>
@@ -32926,7 +32925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A682" s="4" t="s">
         <v>60</v>
       </c>
@@ -32973,7 +32972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A683" s="4" t="s">
         <v>53</v>
       </c>
@@ -33020,7 +33019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A684" s="4" t="s">
         <v>53</v>
       </c>
@@ -33067,7 +33066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A685" s="4" t="s">
         <v>53</v>
       </c>
@@ -33114,7 +33113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A686" s="4" t="s">
         <v>61</v>
       </c>
@@ -33161,7 +33160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A687" s="4" t="s">
         <v>53</v>
       </c>
@@ -33208,7 +33207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A688" s="4" t="s">
         <v>60</v>
       </c>
@@ -33255,7 +33254,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A689" s="4" t="s">
         <v>61</v>
       </c>
@@ -33302,7 +33301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A690" s="4" t="s">
         <v>60</v>
       </c>
@@ -33349,7 +33348,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A691" s="4" t="s">
         <v>60</v>
       </c>
@@ -33396,7 +33395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A692" s="4" t="s">
         <v>60</v>
       </c>
@@ -33443,7 +33442,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A693" s="4" t="s">
         <v>60</v>
       </c>
@@ -33490,7 +33489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A694" s="4" t="s">
         <v>60</v>
       </c>
@@ -33537,7 +33536,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A695" s="4" t="s">
         <v>60</v>
       </c>
@@ -33584,7 +33583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A696" s="4" t="s">
         <v>60</v>
       </c>
@@ -33631,7 +33630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A697" s="4" t="s">
         <v>60</v>
       </c>
@@ -33678,7 +33677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A698" s="4" t="s">
         <v>60</v>
       </c>
@@ -33725,7 +33724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A699" s="4" t="s">
         <v>61</v>
       </c>
@@ -33772,7 +33771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A700" s="4" t="s">
         <v>61</v>
       </c>
@@ -33819,7 +33818,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A701" s="4" t="s">
         <v>61</v>
       </c>
@@ -33866,7 +33865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A702" s="4" t="s">
         <v>61</v>
       </c>
@@ -33913,7 +33912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A703" s="4" t="s">
         <v>61</v>
       </c>
@@ -33960,7 +33959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A704" s="4" t="s">
         <v>61</v>
       </c>
@@ -34007,7 +34006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A705" s="4" t="s">
         <v>61</v>
       </c>
@@ -34054,7 +34053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A706" s="4" t="s">
         <v>61</v>
       </c>
@@ -34101,7 +34100,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A707" s="4" t="s">
         <v>61</v>
       </c>
@@ -34148,7 +34147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A708" s="4" t="s">
         <v>61</v>
       </c>
@@ -34195,7 +34194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A709" s="4" t="s">
         <v>61</v>
       </c>
@@ -34242,7 +34241,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A710" s="4" t="s">
         <v>61</v>
       </c>
@@ -34289,7 +34288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A711" s="4" t="s">
         <v>61</v>
       </c>
@@ -34336,7 +34335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A712" s="4" t="s">
         <v>61</v>
       </c>
@@ -34383,7 +34382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A713" s="4" t="s">
         <v>61</v>
       </c>
@@ -34430,7 +34429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A714" s="4" t="s">
         <v>61</v>
       </c>
@@ -34477,7 +34476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A715" s="4" t="s">
         <v>61</v>
       </c>
@@ -34524,7 +34523,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A716" s="4" t="s">
         <v>61</v>
       </c>
@@ -34571,7 +34570,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A717" s="4" t="s">
         <v>61</v>
       </c>
@@ -34618,7 +34617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A718" s="4" t="s">
         <v>61</v>
       </c>
@@ -34665,7 +34664,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A719" s="4" t="s">
         <v>61</v>
       </c>
@@ -34712,7 +34711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A720" s="4" t="s">
         <v>61</v>
       </c>
@@ -34759,7 +34758,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A721" s="4" t="s">
         <v>61</v>
       </c>
@@ -34806,7 +34805,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A722" s="4" t="s">
         <v>61</v>
       </c>
@@ -34853,7 +34852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A723" s="4" t="s">
         <v>61</v>
       </c>
@@ -34900,7 +34899,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A724" s="4" t="s">
         <v>61</v>
       </c>
@@ -34947,7 +34946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A725" s="4" t="s">
         <v>61</v>
       </c>
@@ -34994,7 +34993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A726" s="4" t="s">
         <v>61</v>
       </c>
@@ -35041,7 +35040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A727" s="4" t="s">
         <v>61</v>
       </c>
@@ -35088,7 +35087,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A728" s="4" t="s">
         <v>61</v>
       </c>
@@ -35135,7 +35134,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A729" s="4" t="s">
         <v>61</v>
       </c>
@@ -35182,7 +35181,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A730" s="4" t="s">
         <v>61</v>
       </c>
@@ -35229,7 +35228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A731" s="4" t="s">
         <v>61</v>
       </c>
@@ -35276,7 +35275,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A732" s="4" t="s">
         <v>61</v>
       </c>
@@ -35323,7 +35322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A733" s="4" t="s">
         <v>61</v>
       </c>
@@ -35370,7 +35369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A734" s="4" t="s">
         <v>61</v>
       </c>
@@ -35417,7 +35416,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A735" s="4" t="s">
         <v>61</v>
       </c>
@@ -35464,7 +35463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A736" s="4" t="s">
         <v>60</v>
       </c>
@@ -35511,7 +35510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A737" s="4" t="s">
         <v>60</v>
       </c>
@@ -35558,7 +35557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A738" s="4" t="s">
         <v>60</v>
       </c>
@@ -35605,7 +35604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A739" s="4" t="s">
         <v>60</v>
       </c>
@@ -35652,7 +35651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A740" s="4" t="s">
         <v>61</v>
       </c>
@@ -35699,7 +35698,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A741" s="4" t="s">
         <v>60</v>
       </c>
@@ -35746,7 +35745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A742" s="4" t="s">
         <v>60</v>
       </c>
@@ -35793,7 +35792,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A743" s="4" t="s">
         <v>50</v>
       </c>
@@ -35840,7 +35839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="744" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A744" s="4" t="s">
         <v>50</v>
       </c>
@@ -35887,7 +35886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="745" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A745" s="4" t="s">
         <v>50</v>
       </c>
@@ -35934,7 +35933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A746" s="4" t="s">
         <v>50</v>
       </c>
@@ -35981,7 +35980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A747" s="4" t="s">
         <v>50</v>
       </c>
@@ -36028,7 +36027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A748" s="4" t="s">
         <v>50</v>
       </c>
@@ -36075,7 +36074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="749" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A749" s="4" t="s">
         <v>50</v>
       </c>
@@ -36122,7 +36121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A750" s="4" t="s">
         <v>50</v>
       </c>
@@ -36169,7 +36168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A751" s="4" t="s">
         <v>50</v>
       </c>
@@ -36216,7 +36215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A752" s="4" t="s">
         <v>50</v>
       </c>
@@ -36263,7 +36262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A753" s="4" t="s">
         <v>50</v>
       </c>
@@ -36310,7 +36309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A754" s="4" t="s">
         <v>50</v>
       </c>
@@ -36357,7 +36356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A755" s="4" t="s">
         <v>50</v>
       </c>
@@ -36404,7 +36403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A756" s="4" t="s">
         <v>50</v>
       </c>
@@ -36451,7 +36450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A757" s="4" t="s">
         <v>50</v>
       </c>
@@ -36498,7 +36497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A758" s="4" t="s">
         <v>50</v>
       </c>
@@ -36545,7 +36544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A759" s="4" t="s">
         <v>50</v>
       </c>
@@ -36592,7 +36591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A760" s="4" t="s">
         <v>50</v>
       </c>
@@ -36639,7 +36638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A761" s="4" t="s">
         <v>50</v>
       </c>
@@ -36686,7 +36685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A762" s="4" t="s">
         <v>50</v>
       </c>
@@ -36733,7 +36732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A763" s="4" t="s">
         <v>50</v>
       </c>
@@ -36780,7 +36779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A764" s="4" t="s">
         <v>50</v>
       </c>
@@ -36827,7 +36826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A765" s="4" t="s">
         <v>50</v>
       </c>
@@ -36874,7 +36873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A766" s="4" t="s">
         <v>50</v>
       </c>
@@ -36921,7 +36920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A767" s="4" t="s">
         <v>50</v>
       </c>
@@ -36968,7 +36967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A768" s="4" t="s">
         <v>50</v>
       </c>
@@ -37015,7 +37014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A769" s="4" t="s">
         <v>50</v>
       </c>
@@ -37062,7 +37061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A770" s="4" t="s">
         <v>50</v>
       </c>
@@ -37109,7 +37108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A771" s="4" t="s">
         <v>50</v>
       </c>
@@ -37156,7 +37155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A772" s="4" t="s">
         <v>50</v>
       </c>
@@ -37203,7 +37202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A773" s="4" t="s">
         <v>50</v>
       </c>
@@ -37250,7 +37249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A774" s="4" t="s">
         <v>50</v>
       </c>
@@ -37297,7 +37296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A775" s="4" t="s">
         <v>50</v>
       </c>
@@ -37344,7 +37343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A776" s="4" t="s">
         <v>50</v>
       </c>
@@ -37391,7 +37390,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A777" s="4" t="s">
         <v>50</v>
       </c>
@@ -37438,7 +37437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A778" s="4" t="s">
         <v>49</v>
       </c>
@@ -37485,7 +37484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A779" s="4" t="s">
         <v>49</v>
       </c>
@@ -37532,7 +37531,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A780" s="4" t="s">
         <v>49</v>
       </c>
@@ -37579,7 +37578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A781" s="4" t="s">
         <v>49</v>
       </c>
@@ -37626,7 +37625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A782" s="4" t="s">
         <v>49</v>
       </c>
@@ -37673,7 +37672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A783" s="4" t="s">
         <v>49</v>
       </c>
@@ -37720,7 +37719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A784" s="4" t="s">
         <v>49</v>
       </c>
@@ -37767,7 +37766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A785" s="4" t="s">
         <v>49</v>
       </c>
@@ -37814,7 +37813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A786" s="4" t="s">
         <v>49</v>
       </c>
@@ -37861,7 +37860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A787" s="4" t="s">
         <v>49</v>
       </c>
@@ -37908,7 +37907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A788" s="4" t="s">
         <v>49</v>
       </c>
@@ -37955,7 +37954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A789" s="4" t="s">
         <v>49</v>
       </c>
@@ -38002,7 +38001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A790" s="4" t="s">
         <v>49</v>
       </c>
@@ -38049,7 +38048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A791" s="4" t="s">
         <v>49</v>
       </c>
@@ -38096,7 +38095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A792" s="4" t="s">
         <v>49</v>
       </c>
@@ -38143,7 +38142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A793" s="4" t="s">
         <v>49</v>
       </c>
@@ -38190,7 +38189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A794" s="4" t="s">
         <v>49</v>
       </c>
@@ -38237,7 +38236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A795" s="4" t="s">
         <v>49</v>
       </c>
@@ -38284,7 +38283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A796" s="4" t="s">
         <v>49</v>
       </c>
@@ -38331,7 +38330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A797" s="4" t="s">
         <v>49</v>
       </c>
@@ -38378,7 +38377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A798" s="4" t="s">
         <v>52</v>
       </c>
@@ -38425,7 +38424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A799" s="4" t="s">
         <v>52</v>
       </c>
@@ -38472,7 +38471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A800" s="4" t="s">
         <v>52</v>
       </c>
@@ -38519,7 +38518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A801" s="4" t="s">
         <v>52</v>
       </c>
@@ -38566,7 +38565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A802" s="4" t="s">
         <v>52</v>
       </c>
@@ -38613,7 +38612,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A803" s="4" t="s">
         <v>52</v>
       </c>
@@ -38660,7 +38659,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A804" s="4" t="s">
         <v>52</v>
       </c>
@@ -38707,7 +38706,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A805" s="4" t="s">
         <v>52</v>
       </c>
@@ -38754,7 +38753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A806" s="4" t="s">
         <v>52</v>
       </c>
@@ -38801,7 +38800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A807" s="4" t="s">
         <v>52</v>
       </c>
@@ -38848,7 +38847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A808" s="4" t="s">
         <v>52</v>
       </c>
@@ -38895,7 +38894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A809" s="4" t="s">
         <v>52</v>
       </c>
@@ -38942,7 +38941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A810" s="4" t="s">
         <v>52</v>
       </c>
@@ -38989,7 +38988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A811" s="4" t="s">
         <v>52</v>
       </c>
@@ -39036,7 +39035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A812" s="4" t="s">
         <v>52</v>
       </c>
@@ -39083,7 +39082,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A813" s="4" t="s">
         <v>52</v>
       </c>
@@ -39130,7 +39129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A814" s="4" t="s">
         <v>52</v>
       </c>
@@ -39177,7 +39176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A815" s="4" t="s">
         <v>52</v>
       </c>
@@ -39224,7 +39223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A816" s="4" t="s">
         <v>52</v>
       </c>
@@ -39271,7 +39270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A817" s="4" t="s">
         <v>52</v>
       </c>
@@ -39318,7 +39317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A818" s="4" t="s">
         <v>52</v>
       </c>
@@ -39365,7 +39364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A819" s="4" t="s">
         <v>52</v>
       </c>
@@ -39412,7 +39411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A820" s="4" t="s">
         <v>52</v>
       </c>
@@ -39459,7 +39458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A821" s="4" t="s">
         <v>52</v>
       </c>
@@ -39506,7 +39505,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A822" s="4" t="s">
         <v>52</v>
       </c>
@@ -39553,7 +39552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="823" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A823" s="4" t="s">
         <v>52</v>
       </c>
@@ -39600,7 +39599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="824" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A824" s="4" t="s">
         <v>52</v>
       </c>
@@ -39647,7 +39646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="825" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A825" s="4" t="s">
         <v>52</v>
       </c>
@@ -39694,7 +39693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A826" s="4" t="s">
         <v>52</v>
       </c>
@@ -39741,7 +39740,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="827" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A827" s="4" t="s">
         <v>52</v>
       </c>
@@ -39788,7 +39787,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="828" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A828" s="4" t="s">
         <v>52</v>
       </c>
@@ -39835,7 +39834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="829" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A829" s="4" t="s">
         <v>52</v>
       </c>
@@ -39882,7 +39881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="830" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A830" s="4" t="s">
         <v>52</v>
       </c>
@@ -39929,7 +39928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="831" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A831" s="4" t="s">
         <v>52</v>
       </c>
@@ -39976,7 +39975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="832" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A832" s="4" t="s">
         <v>52</v>
       </c>
@@ -40023,7 +40022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="833" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A833" s="4" t="s">
         <v>52</v>
       </c>
@@ -40070,7 +40069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A834" s="4" t="s">
         <v>52</v>
       </c>
@@ -40117,7 +40116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="835" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A835" s="4" t="s">
         <v>52</v>
       </c>
@@ -40164,7 +40163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A836" s="4" t="s">
         <v>26</v>
       </c>
@@ -40211,7 +40210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="837" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A837" s="4" t="s">
         <v>26</v>
       </c>
@@ -40258,7 +40257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="838" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A838" s="4" t="s">
         <v>26</v>
       </c>
@@ -40305,7 +40304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="839" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A839" s="4" t="s">
         <v>26</v>
       </c>
@@ -40352,7 +40351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="840" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A840" s="4" t="s">
         <v>26</v>
       </c>
@@ -40399,7 +40398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A841" s="4" t="s">
         <v>26</v>
       </c>
@@ -40446,7 +40445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="842" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A842" s="4" t="s">
         <v>26</v>
       </c>
@@ -40493,7 +40492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="843" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A843" s="4" t="s">
         <v>26</v>
       </c>
@@ -40540,7 +40539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A844" s="4" t="s">
         <v>26</v>
       </c>
@@ -40587,7 +40586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="845" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A845" s="4" t="s">
         <v>26</v>
       </c>
@@ -40634,7 +40633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="846" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A846" s="4" t="s">
         <v>26</v>
       </c>
@@ -40681,7 +40680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A847" s="4" t="s">
         <v>26</v>
       </c>
@@ -40728,7 +40727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="848" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A848" s="4" t="s">
         <v>26</v>
       </c>
@@ -40775,7 +40774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="849" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A849" s="4" t="s">
         <v>26</v>
       </c>
@@ -40822,7 +40821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A850" s="4" t="s">
         <v>26</v>
       </c>
@@ -40869,7 +40868,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="851" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A851" s="4" t="s">
         <v>26</v>
       </c>
@@ -40916,7 +40915,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="852" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A852" s="4" t="s">
         <v>26</v>
       </c>
@@ -40963,7 +40962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A853" s="4" t="s">
         <v>26</v>
       </c>
@@ -41010,7 +41009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="854" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A854" s="4" t="s">
         <v>26</v>
       </c>
@@ -41057,7 +41056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="855" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A855" s="4" t="s">
         <v>26</v>
       </c>
@@ -41104,7 +41103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A856" s="4" t="s">
         <v>26</v>
       </c>
@@ -41151,7 +41150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A857" s="4" t="s">
         <v>26</v>
       </c>
@@ -41198,7 +41197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="858" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A858" s="4" t="s">
         <v>26</v>
       </c>
@@ -41245,7 +41244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="859" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A859" s="4" t="s">
         <v>26</v>
       </c>
@@ -41292,7 +41291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="860" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A860" s="4" t="s">
         <v>26</v>
       </c>
@@ -41339,7 +41338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="861" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A861" s="4" t="s">
         <v>26</v>
       </c>
@@ -41386,7 +41385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A862" s="4" t="s">
         <v>26</v>
       </c>
@@ -41433,7 +41432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="863" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A863" s="4" t="s">
         <v>26</v>
       </c>
@@ -41480,7 +41479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="864" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A864" s="4" t="s">
         <v>26</v>
       </c>
@@ -41527,7 +41526,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="865" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A865" s="4" t="s">
         <v>26</v>
       </c>
@@ -41574,7 +41573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="866" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A866" s="4" t="s">
         <v>26</v>
       </c>
@@ -41621,7 +41620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="867" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A867" s="4" t="s">
         <v>26</v>
       </c>
@@ -41668,7 +41667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="868" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A868" s="4" t="s">
         <v>26</v>
       </c>
@@ -41715,7 +41714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="869" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A869" s="4" t="s">
         <v>26</v>
       </c>
@@ -41762,7 +41761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A870" s="4" t="s">
         <v>26</v>
       </c>
@@ -41809,7 +41808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A871" s="4" t="s">
         <v>24</v>
       </c>
@@ -41856,7 +41855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A872" s="4" t="s">
         <v>24</v>
       </c>
@@ -41903,7 +41902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="873" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A873" s="4" t="s">
         <v>24</v>
       </c>
@@ -41950,7 +41949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="874" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A874" s="4" t="s">
         <v>24</v>
       </c>
@@ -41997,7 +41996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="875" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A875" s="4" t="s">
         <v>24</v>
       </c>
@@ -42044,7 +42043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="876" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A876" s="4" t="s">
         <v>24</v>
       </c>
@@ -42091,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A877" s="4" t="s">
         <v>24</v>
       </c>
@@ -42138,7 +42137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A878" s="4" t="s">
         <v>24</v>
       </c>
@@ -42185,7 +42184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A879" s="4" t="s">
         <v>24</v>
       </c>
@@ -42232,7 +42231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="880" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A880" s="4" t="s">
         <v>24</v>
       </c>
@@ -42279,7 +42278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="881" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A881" s="4" t="s">
         <v>24</v>
       </c>
@@ -42326,7 +42325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="882" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A882" s="4" t="s">
         <v>24</v>
       </c>
@@ -42373,7 +42372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A883" s="4" t="s">
         <v>24</v>
       </c>
@@ -42420,7 +42419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="884" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A884" s="4" t="s">
         <v>24</v>
       </c>
@@ -42467,7 +42466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="885" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A885" s="4" t="s">
         <v>24</v>
       </c>
@@ -42514,7 +42513,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="886" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A886" s="4" t="s">
         <v>24</v>
       </c>
@@ -42561,7 +42560,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="887" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A887" s="4" t="s">
         <v>24</v>
       </c>
@@ -42608,7 +42607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A888" s="4" t="s">
         <v>20</v>
       </c>
@@ -42655,7 +42654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="889" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A889" s="4" t="s">
         <v>20</v>
       </c>
@@ -42702,7 +42701,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="890" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A890" s="4" t="s">
         <v>20</v>
       </c>
@@ -42749,7 +42748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A891" s="4" t="s">
         <v>20</v>
       </c>
@@ -42796,7 +42795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="892" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A892" s="4" t="s">
         <v>20</v>
       </c>
@@ -42843,7 +42842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="893" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A893" s="4" t="s">
         <v>20</v>
       </c>
@@ -42890,7 +42889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A894" s="4" t="s">
         <v>20</v>
       </c>
@@ -42937,7 +42936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A895" s="4" t="s">
         <v>20</v>
       </c>
@@ -42984,7 +42983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="896" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A896" s="4" t="s">
         <v>20</v>
       </c>
@@ -43031,7 +43030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A897" s="4" t="s">
         <v>20</v>
       </c>
@@ -43078,7 +43077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A898" s="4" t="s">
         <v>20</v>
       </c>
@@ -43125,7 +43124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="899" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A899" s="4" t="s">
         <v>20</v>
       </c>
@@ -43172,7 +43171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A900" s="4" t="s">
         <v>20</v>
       </c>
@@ -43219,7 +43218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="901" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A901" s="4" t="s">
         <v>20</v>
       </c>
@@ -43266,7 +43265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="902" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A902" s="4" t="s">
         <v>20</v>
       </c>
@@ -43313,7 +43312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A903" s="4" t="s">
         <v>20</v>
       </c>
@@ -43360,7 +43359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A904" s="4" t="s">
         <v>20</v>
       </c>
@@ -43407,7 +43406,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="905" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A905" s="4" t="s">
         <v>20</v>
       </c>
@@ -43454,7 +43453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="906" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A906" s="4" t="s">
         <v>20</v>
       </c>
@@ -43501,7 +43500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A907" s="4" t="s">
         <v>20</v>
       </c>
@@ -43548,7 +43547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="908" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A908" s="4" t="s">
         <v>20</v>
       </c>
@@ -43595,7 +43594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="909" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A909" s="4" t="s">
         <v>20</v>
       </c>
@@ -43642,7 +43641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A910" s="4" t="s">
         <v>20</v>
       </c>
@@ -43689,7 +43688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="911" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A911" s="4" t="s">
         <v>20</v>
       </c>
@@ -43736,7 +43735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A912" s="4" t="s">
         <v>20</v>
       </c>
@@ -43783,7 +43782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A913" s="4" t="s">
         <v>20</v>
       </c>
@@ -43830,7 +43829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A914" s="4" t="s">
         <v>20</v>
       </c>
@@ -43877,7 +43876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="915" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A915" s="4" t="s">
         <v>20</v>
       </c>
@@ -43924,7 +43923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A916" s="4" t="s">
         <v>20</v>
       </c>
@@ -43971,7 +43970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="917" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A917" s="4" t="s">
         <v>37</v>
       </c>
@@ -44018,7 +44017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A918" s="4" t="s">
         <v>37</v>
       </c>
@@ -44065,7 +44064,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="919" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A919" s="4" t="s">
         <v>37</v>
       </c>
@@ -44112,7 +44111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A920" s="4" t="s">
         <v>37</v>
       </c>
@@ -44159,7 +44158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="921" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A921" s="4" t="s">
         <v>37</v>
       </c>
@@ -44206,7 +44205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A922" s="4" t="s">
         <v>37</v>
       </c>
@@ -44253,7 +44252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A923" s="4" t="s">
         <v>37</v>
       </c>
@@ -44300,7 +44299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A924" s="4" t="s">
         <v>37</v>
       </c>
@@ -44347,7 +44346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="925" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A925" s="4" t="s">
         <v>37</v>
       </c>
@@ -44394,7 +44393,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="926" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A926" s="4" t="s">
         <v>37</v>
       </c>
@@ -44441,7 +44440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="927" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A927" s="4" t="s">
         <v>37</v>
       </c>
@@ -44488,7 +44487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="928" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A928" s="4" t="s">
         <v>37</v>
       </c>
@@ -44535,7 +44534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A929" s="4" t="s">
         <v>37</v>
       </c>
@@ -44582,7 +44581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="930" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A930" s="4" t="s">
         <v>37</v>
       </c>
@@ -44629,7 +44628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="931" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A931" s="4" t="s">
         <v>37</v>
       </c>
@@ -44676,7 +44675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="932" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A932" s="4" t="s">
         <v>37</v>
       </c>
@@ -44723,7 +44722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="933" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A933" s="4" t="s">
         <v>37</v>
       </c>
@@ -44770,7 +44769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="934" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A934" s="4" t="s">
         <v>37</v>
       </c>
@@ -44817,7 +44816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="935" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A935" s="4" t="s">
         <v>37</v>
       </c>
@@ -44864,7 +44863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="936" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A936" s="4" t="s">
         <v>37</v>
       </c>
@@ -44911,7 +44910,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="937" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A937" s="4" t="s">
         <v>37</v>
       </c>
@@ -44958,7 +44957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="938" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A938" s="4" t="s">
         <v>37</v>
       </c>
@@ -45005,7 +45004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="939" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A939" s="4" t="s">
         <v>37</v>
       </c>
@@ -45052,7 +45051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="940" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A940" s="4" t="s">
         <v>37</v>
       </c>
@@ -45099,7 +45098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A941" s="4" t="s">
         <v>37</v>
       </c>
@@ -45146,7 +45145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A942" s="4" t="s">
         <v>37</v>
       </c>
@@ -45193,7 +45192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="943" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A943" s="4" t="s">
         <v>37</v>
       </c>
@@ -45240,7 +45239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A944" s="4" t="s">
         <v>37</v>
       </c>
@@ -45287,7 +45286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="945" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A945" s="4" t="s">
         <v>37</v>
       </c>
@@ -45334,7 +45333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="946" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A946" s="4" t="s">
         <v>52</v>
       </c>
@@ -45381,7 +45380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="947" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A947" s="4" t="s">
         <v>52</v>
       </c>
@@ -45428,7 +45427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="948" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A948" s="4" t="s">
         <v>37</v>
       </c>
@@ -45475,7 +45474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="949" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A949" s="4" t="s">
         <v>52</v>
       </c>
@@ -45522,7 +45521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="950" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A950" s="4" t="s">
         <v>52</v>
       </c>
@@ -45569,7 +45568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="951" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A951" s="4" t="s">
         <v>52</v>
       </c>
@@ -45616,7 +45615,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="952" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A952" s="4" t="s">
         <v>52</v>
       </c>
@@ -45663,7 +45662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A953" s="4" t="s">
         <v>52</v>
       </c>
@@ -45710,7 +45709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="954" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A954" s="4" t="s">
         <v>52</v>
       </c>
@@ -45757,7 +45756,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="955" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A955" s="4" t="s">
         <v>52</v>
       </c>
@@ -45804,7 +45803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A956" s="4" t="s">
         <v>52</v>
       </c>
@@ -45851,7 +45850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="957" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A957" s="4" t="s">
         <v>52</v>
       </c>
@@ -45898,7 +45897,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="958" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A958" s="4" t="s">
         <v>52</v>
       </c>
@@ -45945,7 +45944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="959" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A959" s="4" t="s">
         <v>52</v>
       </c>
@@ -45992,7 +45991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A960" s="4" t="s">
         <v>52</v>
       </c>
@@ -46039,7 +46038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A961" s="4" t="s">
         <v>52</v>
       </c>
@@ -46086,7 +46085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A962" s="4" t="s">
         <v>52</v>
       </c>
@@ -46133,7 +46132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A963" s="4" t="s">
         <v>52</v>
       </c>
@@ -46180,7 +46179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="964" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A964" s="4" t="s">
         <v>52</v>
       </c>
@@ -46227,7 +46226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A965" s="4" t="s">
         <v>52</v>
       </c>
@@ -46274,7 +46273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="966" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A966" s="4" t="s">
         <v>49</v>
       </c>
@@ -46321,7 +46320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A967" s="4" t="s">
         <v>49</v>
       </c>
@@ -46368,7 +46367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="968" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A968" s="4" t="s">
         <v>49</v>
       </c>
@@ -46415,7 +46414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A969" s="4" t="s">
         <v>49</v>
       </c>
@@ -46462,7 +46461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="970" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A970" s="4" t="s">
         <v>49</v>
       </c>
@@ -46509,7 +46508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="971" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A971" s="4" t="s">
         <v>49</v>
       </c>
@@ -46556,7 +46555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="972" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A972" s="4" t="s">
         <v>49</v>
       </c>
@@ -46603,7 +46602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="973" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A973" s="4" t="s">
         <v>49</v>
       </c>
@@ -46650,7 +46649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="974" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A974" s="4" t="s">
         <v>49</v>
       </c>
@@ -46697,7 +46696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="975" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A975" s="4" t="s">
         <v>49</v>
       </c>
@@ -46744,7 +46743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="976" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A976" s="4" t="s">
         <v>49</v>
       </c>
@@ -46791,7 +46790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="977" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A977" s="4" t="s">
         <v>49</v>
       </c>
@@ -46838,7 +46837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="978" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A978" s="4" t="s">
         <v>49</v>
       </c>
@@ -46885,7 +46884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="979" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A979" s="4" t="s">
         <v>49</v>
       </c>
@@ -46932,7 +46931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A980" s="4" t="s">
         <v>49</v>
       </c>
@@ -46979,7 +46978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="981" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A981" s="4" t="s">
         <v>49</v>
       </c>
@@ -47026,7 +47025,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="982" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A982" s="4" t="s">
         <v>49</v>
       </c>
@@ -47073,7 +47072,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="983" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A983" s="4" t="s">
         <v>49</v>
       </c>
@@ -47120,7 +47119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="984" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A984" s="4" t="s">
         <v>49</v>
       </c>
@@ -47167,7 +47166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="985" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A985" s="4" t="s">
         <v>49</v>
       </c>
@@ -47214,7 +47213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="986" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A986" s="4" t="s">
         <v>49</v>
       </c>
@@ -47261,7 +47260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A987" s="4" t="s">
         <v>49</v>
       </c>
@@ -47308,7 +47307,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="988" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A988" s="4" t="s">
         <v>49</v>
       </c>
@@ -47355,7 +47354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="989" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A989" s="4" t="s">
         <v>49</v>
       </c>
@@ -47402,7 +47401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="990" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A990" s="4" t="s">
         <v>49</v>
       </c>
@@ -47449,7 +47448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A991" s="4" t="s">
         <v>49</v>
       </c>
@@ -47496,7 +47495,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="992" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A992" s="4" t="s">
         <v>49</v>
       </c>
@@ -47543,7 +47542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="993" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A993" s="4" t="s">
         <v>49</v>
       </c>
@@ -47590,7 +47589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A994" s="4" t="s">
         <v>49</v>
       </c>
@@ -47637,7 +47636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A995" s="4" t="s">
         <v>49</v>
       </c>
@@ -47700,13 +47699,6 @@
       <c r="O1111" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O995" xr:uid="{E4D3071D-66CE-4F5D-AF98-659E40B9908D}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1226"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:N1114">
     <sortCondition ref="F2:F1114"/>
   </sortState>
